--- a/auxfiles/textured50.xlsx
+++ b/auxfiles/textured50.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prgc\lisem\auxfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prgc\lisemgit\openlisem\auxfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6FE912-E6E1-4B38-A09B-07F60BBE0E74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216BD6F9-AE1D-49FC-A5CA-C90F162FEA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="29699" windowHeight="16197" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t xml:space="preserve">Sa </t>
   </si>
@@ -167,6 +167,292 @@
   <si>
     <t>b</t>
   </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>cgovers-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Drc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00677C"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>pow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>((D50-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Drc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4500CE"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4500CE"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>0.32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4500CE"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>0.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>dgovers-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Drc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00677C"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>pow</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>((D50-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000080"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Drc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4500CE"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>)/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4500CE"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4500CE"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>0.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +462,7 @@
     <numFmt numFmtId="164" formatCode="0.000000000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +493,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC0C0C0"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000080"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00677C"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4500CE"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -241,6 +552,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,16 +1075,16 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>0.35</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
                   <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
                   <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
                   <c:v>0.6</c:v>
@@ -805,16 +1120,16 @@
                   <c:v>0.13537436899742261</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.10704519945344969</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.13379523099683405</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.14638067776823196</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.12177693024988095</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.10704519945344969</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8.2503893948170773E-2</c:v>
@@ -1169,16 +1484,16 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>0.35</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
                   <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
                   <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
                   <c:v>0.6</c:v>
@@ -1214,16 +1529,16 @@
                   <c:v>0.11310720723386414</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.27995973321800466</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.23165353174471942</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.26677359326350431</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.39132789569474796</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.27995973321800466</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.52764123774950988</c:v>
@@ -1564,7 +1879,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$13:$I$13</c:f>
+              <c:f>Sheet1!$G$14:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1927,16 +2242,16 @@
                   <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>0.35</c:v>
+                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
                   <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
                   <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>0.42</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
                   <c:v>0.6</c:v>
@@ -1972,16 +2287,16 @@
                   <c:v>17.425717899961931</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>7.8113887292272608</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>7.4309259373511898</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4.919893257596458</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2.4409483436949424</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.8113887292272608</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.71531698928827914</c:v>
@@ -2286,16 +2601,16 @@
                   <c:v>17.425717899961931</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>7.8113887292272608</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>7.4309259373511898</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>4.919893257596458</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2.4409483436949424</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.8113887292272608</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.71531698928827914</c:v>
@@ -2331,16 +2646,16 @@
                   <c:v>207.99942139587381</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>178.55503166111995</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>100.16706710838884</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>52.738681364640179</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>54.708572603887788</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>178.55503166111995</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>83.681482568968875</c:v>
@@ -3193,6 +3508,374 @@
         <c:crossAx val="677623199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TC in kg/m</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="30000"/>
+              <a:t>3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39992864485095253"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Sa </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LSa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SaL </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>L </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SiL </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Si</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SaCL </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SaC </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CL </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SiCL </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SiC </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>C </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$4:$AA$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.7627947977214366E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3838545416474938E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0424794735686636E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7211304475209774E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1137471173320273E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0003160880026748E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.630620738282228E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7996167778867553E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8800165023319439E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.551315407285846E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6110392043004315E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8278697248421413E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF19-4A01-9724-D41E73263980}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="182343647"/>
+        <c:axId val="182351135"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="182343647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182351135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="182351135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="182343647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3566,6 +4249,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7675,6 +8398,509 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8045,6 +9271,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AC37DD-5DC2-586D-B25B-489039311B5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8345,18 +9607,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:K21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="21" max="21" width="10.09765625" customWidth="1"/>
+    <col min="21" max="21" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27">
       <c r="D1" t="s">
         <v>17</v>
       </c>
@@ -8369,8 +9631,17 @@
       <c r="N1" t="s">
         <v>20</v>
       </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1">
+        <v>0.05</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -8401,8 +9672,17 @@
       <c r="U2" t="s">
         <v>13</v>
       </c>
+      <c r="X2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8449,8 +9729,17 @@
         <f>SUM(V4:V15)</f>
         <v>403951.55666483112</v>
       </c>
+      <c r="Y3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="15.6">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>0</v>
@@ -8518,8 +9807,20 @@
         <f>(U4-M4)^2</f>
         <v>183386.31844096837</v>
       </c>
+      <c r="Y4">
+        <f>((M4+5)/0.32)^-0.6</f>
+        <v>4.2972971838442078E-2</v>
+      </c>
+      <c r="Z4">
+        <f>((M4+5)/300)^0.25</f>
+        <v>0.67067034291926964</v>
+      </c>
+      <c r="AA4">
+        <f>Y4*($Y$1*$Y$2)^Z4</f>
+        <v>5.7627947977214366E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="15.6">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
@@ -8586,8 +9887,20 @@
         <f t="shared" ref="V5:V15" si="8">(U5-M5)^2</f>
         <v>85884.518845228245</v>
       </c>
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y15" si="9">((M5+5)/0.32)^-0.6</f>
+        <v>4.926600311275469E-2</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z15" si="10">((M5+5)/300)^0.25</f>
+        <v>0.63354742011241416</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" ref="AA5:AA15" si="11">Y5*($Y$1*$Y$2)^Z5</f>
+        <v>7.3838545416474938E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
@@ -8604,11 +9917,11 @@
         <v>0.1</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:H6" si="9">H6+D6</f>
+        <f t="shared" ref="G6:H6" si="12">H6+D6</f>
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.35</v>
       </c>
       <c r="I6" s="1">
@@ -8645,8 +9958,20 @@
         <f t="shared" si="8"/>
         <v>35880.503079985669</v>
       </c>
+      <c r="Y6">
+        <f t="shared" si="9"/>
+        <v>5.9935264030060449E-2</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="10"/>
+        <v>0.58385656972580169</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="11"/>
+        <v>1.0424794735686636E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="15.6">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -8663,11 +9988,11 @@
         <v>0.18</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:H7" si="10">H7+D7</f>
+        <f t="shared" ref="G7:H7" si="13">H7+D7</f>
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58000000000000007</v>
       </c>
       <c r="I7" s="1">
@@ -8704,8 +10029,20 @@
         <f t="shared" si="8"/>
         <v>9957.0911455262376</v>
       </c>
+      <c r="Y7">
+        <f t="shared" si="9"/>
+        <v>8.0700464965934374E-2</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="10"/>
+        <v>0.51579306525320279</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="11"/>
+        <v>1.7211304475209774E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="15.6">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -8722,11 +10059,11 @@
         <v>0.15</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ref="G8:H8" si="11">H8+D8</f>
+        <f t="shared" ref="G8:H8" si="14">H8+D8</f>
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
       <c r="I8" s="1">
@@ -8763,8 +10100,20 @@
         <f t="shared" si="8"/>
         <v>2241.4287541151266</v>
       </c>
+      <c r="Y8">
+        <f t="shared" si="9"/>
+        <v>9.1562773879758808E-2</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="10"/>
+        <v>0.48935529148331536</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="11"/>
+        <v>2.1137471173320273E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="15.6">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
         <v>5</v>
@@ -8781,11 +10130,11 @@
         <v>0.05</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:H9" si="12">H9+D9</f>
+        <f t="shared" ref="G9:H9" si="15">H9+D9</f>
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.92</v>
       </c>
       <c r="I9" s="1">
@@ -8822,8 +10171,20 @@
         <f t="shared" si="8"/>
         <v>628.05078108536065</v>
       </c>
+      <c r="Y9">
+        <f t="shared" si="9"/>
+        <v>8.8488787027669089E-2</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="10"/>
+        <v>0.49636796712231696</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="11"/>
+        <v>2.0003160880026748E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="15.6">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
@@ -8840,11 +10201,11 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ref="G10:H10" si="13">H10+D10</f>
+        <f t="shared" ref="G10:H10" si="16">H10+D10</f>
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="I10" s="1">
@@ -8881,89 +10242,113 @@
         <f t="shared" si="8"/>
         <v>36318.336464147731</v>
       </c>
+      <c r="Y10">
+        <f t="shared" si="9"/>
+        <v>7.8098406755810632E-2</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="10"/>
+        <v>0.52288511028215245</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="11"/>
+        <v>1.630620738282228E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="15.6">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="1"/>
-        <v>0.31999999999999995</v>
+        <f>1-D11-F11</f>
+        <v>0.06</v>
       </c>
       <c r="F11" s="5">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="G11:H11" si="14">H11+D11</f>
+        <f t="shared" ref="G11:H11" si="17">H11+D11</f>
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="14"/>
-        <v>0.66999999999999993</v>
+        <f t="shared" si="17"/>
+        <v>0.48</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.35</v>
+        <f>F11</f>
+        <v>0.42</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" cm="1">
         <f t="array" ref="K11">INDEX(LINEST(G11:I11,G$3:I$3),1)</f>
-        <v>0.13379523099683405</v>
+        <v>0.10704519945344969</v>
       </c>
       <c r="L11" cm="1">
         <f t="array" ref="L11">INDEX(LINEST(G11:I11,G$3:I$3),2)</f>
-        <v>0.23165353174471942</v>
+        <v>0.27995973321800466</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
-        <v>7.4309259373511898</v>
+        <f>EXP((0.5-L11)/K11)</f>
+        <v>7.8113887292272608</v>
       </c>
       <c r="N11" s="1"/>
       <c r="S11" s="1">
-        <f t="shared" si="5"/>
-        <v>2.0872149483968006</v>
+        <f>EXP(D11)*$S$3</f>
+        <v>2.5239638365730319</v>
       </c>
       <c r="T11" s="1">
-        <f t="shared" si="6"/>
-        <v>2.4372149483968006</v>
+        <f>F11+S11*$T$3</f>
+        <v>2.9439638365730318</v>
       </c>
       <c r="U11" s="9">
-        <f t="shared" si="7"/>
-        <v>100.16706710838884</v>
+        <f>(S11+T11)^$U$3</f>
+        <v>178.55503166111995</v>
       </c>
       <c r="V11">
-        <f t="shared" si="8"/>
-        <v>8599.9918792946228</v>
+        <f>(U11-M11)^2</f>
+        <v>29153.391601653664</v>
+      </c>
+      <c r="Y11">
+        <f>((M11+5)/0.32)^-0.6</f>
+        <v>0.10927788013735215</v>
+      </c>
+      <c r="Z11">
+        <f>((M11+5)/300)^0.25</f>
+        <v>0.45458880736379909</v>
+      </c>
+      <c r="AA11">
+        <f>Y11*($Y$1*$Y$2)^Z11</f>
+        <v>2.7996167778867553E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15.6">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>0.55000000000000004</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="F12" s="5">
         <v>0.35</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G12:H12" si="15">H12+D12</f>
+        <f t="shared" ref="G12:H12" si="18">H12+D12</f>
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="15"/>
-        <v>0.9</v>
+        <f t="shared" si="18"/>
+        <v>0.66999999999999993</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
@@ -8972,153 +10357,189 @@
       <c r="J12" s="1"/>
       <c r="K12" cm="1">
         <f t="array" ref="K12">INDEX(LINEST(G12:I12,G$3:I$3),1)</f>
-        <v>0.14638067776823196</v>
+        <v>0.13379523099683405</v>
       </c>
       <c r="L12" cm="1">
         <f t="array" ref="L12">INDEX(LINEST(G12:I12,G$3:I$3),2)</f>
-        <v>0.26677359326350431</v>
+        <v>0.23165353174471942</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>4.919893257596458</v>
+        <v>7.4309259373511898</v>
       </c>
       <c r="N12" s="1"/>
       <c r="S12" s="1">
         <f t="shared" si="5"/>
-        <v>1.6583624121485205</v>
+        <v>2.0872149483968006</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" si="6"/>
-        <v>2.0083624121485206</v>
+        <v>2.4372149483968006</v>
       </c>
       <c r="U12" s="9">
         <f t="shared" si="7"/>
-        <v>52.738681364640179</v>
+        <v>100.16706710838884</v>
       </c>
       <c r="V12">
         <f t="shared" si="8"/>
-        <v>2286.6364960263463</v>
+        <v>8599.9918792946228</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="9"/>
+        <v>0.11127251383624347</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="10"/>
+        <v>0.45117554961892475</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="11"/>
+        <v>2.8800165023319439E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15.6">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>0.46</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F13" s="5">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ref="G13:H13" si="16">H13+D13</f>
+        <f t="shared" ref="G13:H13" si="19">H13+D13</f>
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="16"/>
-        <v>0.92</v>
+        <f t="shared" si="19"/>
+        <v>0.9</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" cm="1">
         <f t="array" ref="K13">INDEX(LINEST(G13:I13,G$3:I$3),1)</f>
-        <v>0.12177693024988095</v>
+        <v>0.14638067776823196</v>
       </c>
       <c r="L13" cm="1">
         <f t="array" ref="L13">INDEX(LINEST(G13:I13,G$3:I$3),2)</f>
-        <v>0.39132789569474796</v>
+        <v>0.26677359326350431</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>2.4409483436949424</v>
+        <v>4.919893257596458</v>
       </c>
       <c r="N13" s="1"/>
       <c r="S13" s="1">
         <f t="shared" si="5"/>
-        <v>1.6255246362497704</v>
+        <v>1.6583624121485205</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="6"/>
-        <v>2.0855246362497706</v>
+        <v>2.0083624121485206</v>
       </c>
       <c r="U13" s="9">
         <f t="shared" si="7"/>
-        <v>54.708572603887788</v>
+        <v>52.738681364640179</v>
       </c>
       <c r="V13">
         <f t="shared" si="8"/>
-        <v>2731.9045458046999</v>
+        <v>2286.6364960263463</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="9"/>
+        <v>0.12740479916959147</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="10"/>
+        <v>0.42642870949579675</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="11"/>
+        <v>3.551315407285846E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="17.399999999999999" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
-        <v>0.52</v>
+        <v>0.08</v>
       </c>
       <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>0.06</v>
+        <v>0.46</v>
       </c>
       <c r="F14" s="5">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14:H14" si="17">H14+D14</f>
+        <f t="shared" ref="G14:H14" si="20">H14+D14</f>
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="17"/>
-        <v>0.48</v>
+        <f t="shared" si="20"/>
+        <v>0.92</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="4"/>
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" cm="1">
         <f t="array" ref="K14">INDEX(LINEST(G14:I14,G$3:I$3),1)</f>
-        <v>0.10704519945344969</v>
+        <v>0.12177693024988095</v>
       </c>
       <c r="L14" cm="1">
         <f t="array" ref="L14">INDEX(LINEST(G14:I14,G$3:I$3),2)</f>
-        <v>0.27995973321800466</v>
+        <v>0.39132789569474796</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>7.8113887292272608</v>
+        <v>2.4409483436949424</v>
       </c>
       <c r="N14" s="1"/>
       <c r="S14" s="1">
         <f t="shared" si="5"/>
-        <v>2.5239638365730319</v>
+        <v>1.6255246362497704</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="6"/>
-        <v>2.9439638365730318</v>
+        <v>2.0855246362497706</v>
       </c>
       <c r="U14" s="9">
         <f t="shared" si="7"/>
-        <v>178.55503166111995</v>
+        <v>54.708572603887788</v>
       </c>
       <c r="V14">
         <f t="shared" si="8"/>
-        <v>29153.391601653664</v>
+        <v>2731.9045458046999</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="9"/>
+        <v>0.15139551624977202</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="10"/>
+        <v>0.39685034182661311</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="11"/>
+        <v>4.6110392043004315E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.55" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="15.6">
       <c r="A15" s="2"/>
       <c r="B15" s="4" t="s">
         <v>11</v>
@@ -9135,11 +10556,11 @@
         <v>0.6</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ref="G15:H15" si="18">H15+D15</f>
+        <f t="shared" ref="G15:H15" si="21">H15+D15</f>
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.8</v>
       </c>
       <c r="I15" s="1">
@@ -9176,13 +10597,25 @@
         <f t="shared" si="8"/>
         <v>6883.3846309949768</v>
       </c>
+      <c r="Y15">
+        <f t="shared" si="9"/>
+        <v>0.17736413016311967</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="10"/>
+        <v>0.37151792034227915</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="11"/>
+        <v>5.8278697248421413E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27">
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="8"/>
     </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:11">
       <c r="G19">
         <v>2</v>
       </c>
@@ -9198,7 +10631,7 @@
         <v>0.69314718055994529</v>
       </c>
     </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:11">
       <c r="G20">
         <v>50</v>
       </c>
@@ -9213,7 +10646,7 @@
         <v>3.912023005428146</v>
       </c>
     </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:11">
       <c r="G21">
         <v>200</v>
       </c>
@@ -9228,19 +10661,19 @@
         <v>5.2983173665480363</v>
       </c>
     </row>
-    <row r="23" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:11">
       <c r="J23">
         <f>0.5-0.2347</f>
         <v>0.26529999999999998</v>
       </c>
     </row>
-    <row r="24" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:11">
       <c r="J24">
         <f>J23/0.1152</f>
         <v>2.3029513888888888</v>
       </c>
     </row>
-    <row r="25" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:11">
       <c r="J25">
         <f>EXP(J24)</f>
         <v>10.003663629893763</v>
